--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Insl3-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Insl3-Rxfp2.xlsx
@@ -531,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5590266666666667</v>
+        <v>0.4978683333333334</v>
       </c>
       <c r="H2">
-        <v>1.67708</v>
+        <v>1.493605</v>
       </c>
       <c r="I2">
-        <v>0.854749468928765</v>
+        <v>0.7998403109384866</v>
       </c>
       <c r="J2">
-        <v>0.8547494689287651</v>
+        <v>0.7998403109384865</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.14336</v>
       </c>
       <c r="O2">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="P2">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="Q2">
-        <v>0.02671402097777778</v>
+        <v>0.02379146808888889</v>
       </c>
       <c r="R2">
-        <v>0.2404261888</v>
+        <v>0.2141232128</v>
       </c>
       <c r="S2">
-        <v>0.6227227094037269</v>
+        <v>0.6243675849504027</v>
       </c>
       <c r="T2">
-        <v>0.622722709403727</v>
+        <v>0.6243675849504026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5590266666666667</v>
+        <v>0.4978683333333334</v>
       </c>
       <c r="H3">
-        <v>1.67708</v>
+        <v>1.493605</v>
       </c>
       <c r="I3">
-        <v>0.854749468928765</v>
+        <v>0.7998403109384866</v>
       </c>
       <c r="J3">
-        <v>0.8547494689287651</v>
+        <v>0.7998403109384865</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01780533333333333</v>
+        <v>0.01343</v>
       </c>
       <c r="N3">
-        <v>0.053416</v>
+        <v>0.04029</v>
       </c>
       <c r="O3">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="P3">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="Q3">
-        <v>0.009953656142222222</v>
+        <v>0.006686371716666667</v>
       </c>
       <c r="R3">
-        <v>0.08958290528</v>
+        <v>0.06017734545</v>
       </c>
       <c r="S3">
-        <v>0.2320267595250382</v>
+        <v>0.175472725988084</v>
       </c>
       <c r="T3">
-        <v>0.2320267595250382</v>
+        <v>0.175472725988084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09499733333333334</v>
+        <v>0.1245913333333333</v>
       </c>
       <c r="H4">
-        <v>0.284992</v>
+        <v>0.373774</v>
       </c>
       <c r="I4">
-        <v>0.1452505310712349</v>
+        <v>0.2001596890615135</v>
       </c>
       <c r="J4">
-        <v>0.1452505310712349</v>
+        <v>0.2001596890615135</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.14336</v>
       </c>
       <c r="O4">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="P4">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="Q4">
-        <v>0.004539605902222222</v>
+        <v>0.005953804515555555</v>
       </c>
       <c r="R4">
-        <v>0.04085645312</v>
+        <v>0.05358424064</v>
       </c>
       <c r="S4">
-        <v>0.1058214219944111</v>
+        <v>0.1562477158935942</v>
       </c>
       <c r="T4">
-        <v>0.1058214219944111</v>
+        <v>0.1562477158935942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.09499733333333334</v>
+        <v>0.1245913333333333</v>
       </c>
       <c r="H5">
-        <v>0.284992</v>
+        <v>0.373774</v>
       </c>
       <c r="I5">
-        <v>0.1452505310712349</v>
+        <v>0.2001596890615135</v>
       </c>
       <c r="J5">
-        <v>0.1452505310712349</v>
+        <v>0.2001596890615135</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01780533333333333</v>
+        <v>0.01343</v>
       </c>
       <c r="N5">
-        <v>0.053416</v>
+        <v>0.04029</v>
       </c>
       <c r="O5">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="P5">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="Q5">
-        <v>0.001691459185777778</v>
+        <v>0.001673261606666666</v>
       </c>
       <c r="R5">
-        <v>0.015223132672</v>
+        <v>0.01505935446</v>
       </c>
       <c r="S5">
-        <v>0.03942910907682382</v>
+        <v>0.0439119731679193</v>
       </c>
       <c r="T5">
-        <v>0.03942910907682382</v>
+        <v>0.04391197316791929</v>
       </c>
     </row>
   </sheetData>
